--- a/biology/Botanique/Immortelle_commune/Immortelle_commune.xlsx
+++ b/biology/Botanique/Immortelle_commune/Immortelle_commune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helichrysum stoechas
 L'immortelle commune,  immortelle des dunes ou immortelle jaune (Helichrysum stoechas) est un sous-arbrisseau de la famille des Astéracées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante psammophile aux tiges érigées à base ligneuse, aux feuilles linéaires, duveteuses, les supérieures parfois glabres, aux fleurs en capitules aux fleurons jaunes entourés de bractées.
 Cette immortelle a une pilosité glanduleuse. Les poils glandulaires sécrètent des lipides souvent odorants qui forment une couche imperméable résistant à la dessiccation. La plante dégage ainsi une odeur épicée et chaude pouvant rappeler le curry, le sucre candi ou le café. En été, lorsque le soleil réchauffe la végétation de la dune grise, une odeur insistante et pénétrante de curry envahit l’atmosphère.
@@ -544,13 +558,15 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs :
 Type d'inflorescence : corymbe de capitules
 Répartition des sexes : hermaphrodite
 Type de pollinisation : entomogame, autogame
-Sa floraison a lieu d'avril à juillet[1].
+Sa floraison a lieu d'avril à juillet.
 Graine :
 Type de fruit : akène
 Mode de dissémination : barochore
@@ -586,9 +602,11 @@
           <t>Sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les trois variétés les plus connues[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les trois variétés les plus connues :
 Helichrysum stoechas (L.) Moench var. maritimum, des pelouses sabulicoles européennes, maritimes, calcicoles
 Helichrysum stoechas (L.) Moench var. dolomiticum, des pelouses sabulicoles médioeuropéennes, subméditerranéennes, de l'intérieur des terres, dolomiticoles
 Helichrysum stoechas (L.) Moench subsp. stoechas, des pelouses sabulicoles médioeuropéennes, sub à méditerranéennes, de l'intérieur des terres, calcicoles</t>
@@ -619,9 +637,11 @@
           <t>Propriétés médicinales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On utilise principalement l'extrémité des tiges et les fleurs aux propriétés[3],[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On utilise principalement l'extrémité des tiges et les fleurs aux propriétés, :
 anti-inflammatoire
 antitussive
 antibactérienne (germes gram +)
@@ -661,7 +681,9 @@
           <t>Calendrier républicain</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'immortelle voit son nom attribué au 12e jour du mois de vendémiaire du calendrier républicain ou révolutionnaire français, généralement chaque 3 octobre du calendrier grégorien.
 </t>
